--- a/template/Stud_Subj_Grade.xlsx
+++ b/template/Stud_Subj_Grade.xlsx
@@ -119,7 +119,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -128,11 +128,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -442,12 +451,12 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" style="9" customWidth="1"/>
     <col min="2" max="2" width="35.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -462,69 +471,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="3" t="s">

--- a/template/Stud_Subj_Grade.xlsx
+++ b/template/Stud_Subj_Grade.xlsx
@@ -119,19 +119,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -143,6 +137,15 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -450,123 +453,121 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" style="9" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" style="7" customWidth="1"/>
     <col min="2" max="2" width="35.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="9" t="s">
         <v>5</v>
       </c>
     </row>

--- a/template/Stud_Subj_Grade.xlsx
+++ b/template/Stud_Subj_Grade.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Name</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>LRN</t>
+  </si>
+  <si>
+    <t>School Year</t>
   </si>
 </sst>
 </file>
@@ -451,7 +454,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -473,7 +476,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="8"/>
@@ -489,7 +492,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="8"/>
@@ -505,7 +508,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="8"/>
@@ -520,7 +523,9 @@
       <c r="L3" s="8"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="B4" s="3"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -534,40 +539,54 @@
       <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="L6" s="9" t="s">
         <v>5</v>
       </c>
     </row>
